--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACE32A-239E-4146-B8A6-E9CF4D69056F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8B4A2-2DC4-4482-A38F-7C82EF888B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>설명 스트링 코드</t>
   </si>
   <si>
-    <t>스킬 애니메이션</t>
-  </si>
-  <si>
     <t>펑션 인덱스</t>
   </si>
   <si>
@@ -49,63 +46,92 @@
     <t>string</t>
   </si>
   <si>
-    <t>0500000</t>
-  </si>
-  <si>
-    <t>SKILL_NORMAL_AD</t>
-  </si>
-  <si>
-    <t>DESC_SKILL_NORMAL_AD</t>
-  </si>
-  <si>
-    <t>0600000</t>
-  </si>
-  <si>
-    <t>0500001</t>
-  </si>
-  <si>
-    <t>SKILL_NORMAL_AP</t>
-  </si>
-  <si>
-    <t>DESC_SKILL_NORMAL_AP</t>
-  </si>
-  <si>
-    <t>0600001</t>
-  </si>
-  <si>
-    <t>0500002</t>
-  </si>
-  <si>
     <t>SKILL_L</t>
   </si>
   <si>
-    <t>DESC_SKILL_L</t>
-  </si>
-  <si>
-    <t>0600002</t>
-  </si>
-  <si>
-    <t>skillTimeLineName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>functionIndex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>스킬 사거리</t>
+  </si>
+  <si>
+    <t>애니메이션 경로</t>
+  </si>
+  <si>
+    <t>이펙트 경로</t>
+  </si>
+  <si>
+    <t>SFX 경로</t>
+  </si>
+  <si>
+    <t>desStringCode</t>
+  </si>
+  <si>
+    <t>funcIndex</t>
+  </si>
+  <si>
+    <t>skillRange</t>
+  </si>
+  <si>
+    <t>animPath</t>
+  </si>
+  <si>
+    <t>fxPath</t>
+  </si>
+  <si>
+    <t>sfxPath</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>SKILL_MELEE_AD</t>
+  </si>
+  <si>
+    <t>DES_SKILL_MELEE_AD</t>
+  </si>
+  <si>
+    <t>SKILL_MELEE_AP</t>
+  </si>
+  <si>
+    <t>DES_SKILL_MELEE_AP</t>
+  </si>
+  <si>
+    <t>SKILL_RANGED_AD</t>
+  </si>
+  <si>
+    <t>DES_SKILL_RANGED_AD</t>
+  </si>
+  <si>
+    <t>SKILL_RANGED_AP</t>
+  </si>
+  <si>
+    <t>DES_SKILL_RANGED_AP</t>
+  </si>
+  <si>
+    <t>DES_SKILL_L</t>
+  </si>
+  <si>
+    <t>SKILL_K</t>
+  </si>
+  <si>
+    <t>DES_SKILL_K</t>
+  </si>
+  <si>
+    <t>SKILL_J</t>
+  </si>
+  <si>
+    <t>DES_SKILL_J</t>
+  </si>
+  <si>
+    <t>SKILL_M</t>
+  </si>
+  <si>
+    <t>DES_SKILL_M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -137,12 +163,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +211,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -188,17 +232,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -206,8 +263,15 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -429,7 +493,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M18" sqref="M18:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -441,301 +505,376 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>500000</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13">
+        <v>600000</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>500001</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13">
+        <v>600001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>500002</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13">
+        <v>600002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>500003</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13">
+        <v>600003</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>500100</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13">
+        <v>600100</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>500101</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <v>600101</v>
+      </c>
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>500102</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13">
+        <v>600102</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>500103</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13">
+        <v>600103</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:H17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:H17 D12:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8B4A2-2DC4-4482-A38F-7C82EF888B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BBB66-F9C3-482D-9AB1-22D794D895D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:M19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,9 +503,10 @@
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -611,7 +612,9 @@
       <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="6"/>
@@ -635,7 +638,9 @@
       <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="6"/>
@@ -659,7 +664,9 @@
       <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="6"/>
@@ -801,7 +808,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -815,7 +822,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -829,7 +836,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -843,7 +850,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -857,7 +864,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BBB66-F9C3-482D-9AB1-22D794D895D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81749610-8690-437A-B029-A93880AEE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>설명 스트링 코드</t>
   </si>
   <si>
-    <t>펑션 인덱스</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>desStringCode</t>
   </si>
   <si>
-    <t>funcIndex</t>
-  </si>
-  <si>
     <t>skillRange</t>
   </si>
   <si>
@@ -88,12 +82,6 @@
     <t>DES_SKILL_MELEE_AD</t>
   </si>
   <si>
-    <t>SKILL_MELEE_AP</t>
-  </si>
-  <si>
-    <t>DES_SKILL_MELEE_AP</t>
-  </si>
-  <si>
     <t>SKILL_RANGED_AD</t>
   </si>
   <si>
@@ -125,13 +113,60 @@
   </si>
   <si>
     <t>DES_SKILL_M</t>
+  </si>
+  <si>
+    <t>#펑션 인덱스</t>
+  </si>
+  <si>
+    <t>#funcIndex</t>
+  </si>
+  <si>
+    <t>#long</t>
+  </si>
+  <si>
+    <t>SKILL_BOT_D1</t>
+  </si>
+  <si>
+    <t>DES_SKILL_BOT_D1</t>
+  </si>
+  <si>
+    <t>SKILL_BOT_A1</t>
+  </si>
+  <si>
+    <t>DES_SKILL_BOT_A1</t>
+  </si>
+  <si>
+    <t>SKILL_BOT_S1</t>
+  </si>
+  <si>
+    <t>DES_SKILL_BOT_S1</t>
+  </si>
+  <si>
+    <t>SKILL_RANGED_AD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_MELEE_AD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_RANGED_AP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,17 +199,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -261,15 +296,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,10 +527,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -517,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>9</v>
@@ -529,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -538,28 +575,28 @@
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -568,63 +605,63 @@
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>500000</v>
+        <v>500100</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13">
-        <v>600000</v>
-      </c>
-      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>600100</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>500001</v>
+        <v>500200</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>22</v>
@@ -633,66 +670,68 @@
         <v>23</v>
       </c>
       <c r="D5" s="13">
-        <v>600001</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>600200</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>500002</v>
+        <v>500300</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="13">
-        <v>600002</v>
-      </c>
-      <c r="E6" s="13">
-        <v>4</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>600300</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>500003</v>
+        <v>500400</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13">
-        <v>600003</v>
-      </c>
-      <c r="E7" s="13">
         <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>600400</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -700,23 +739,25 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>500100</v>
+        <v>500110</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13">
-        <v>600100</v>
-      </c>
-      <c r="E8" s="13">
         <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>600110</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -724,23 +765,25 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>500101</v>
+        <v>500210</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="13">
-        <v>600101</v>
-      </c>
-      <c r="E9" s="13">
         <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>600210</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -748,23 +791,23 @@
     </row>
     <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>500102</v>
+        <v>500310</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="13">
-        <v>600102</v>
-      </c>
-      <c r="E10" s="13">
         <v>1</v>
       </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>600310</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -772,119 +815,182 @@
     </row>
     <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <v>500103</v>
+        <v>500410</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="13">
-        <v>600103</v>
-      </c>
-      <c r="E11" s="13">
         <v>4</v>
       </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>600410</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>510000</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+    <row r="13" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>510100</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>510200</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>510210</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>510300</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>510310</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>510400</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>510410</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:H17 D12:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D8D3A-156C-4905-8418-B40FC2525405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9294936-19B5-413B-89D3-A4A66A3F83D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2970" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -577,7 +577,7 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470944E1-C813-4AF0-8C27-0D80AE75831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5610B-AE47-4B34-960A-3DA46C1A8C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="720" windowWidth="18600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>CURRENT_ENEMY</t>
   </si>
   <si>
-    <t>K_SKILL_1</t>
-  </si>
-  <si>
     <t>가장 멀리 있는 적에게 날아갔다가 돌아오는 나비를 던집니다.</t>
   </si>
   <si>
@@ -263,6 +260,10 @@
   </si>
   <si>
     <t>L_AA_Child2</t>
+  </si>
+  <si>
+    <t>K_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -581,7 +582,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -590,8 +591,7 @@
     <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="123.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -670,7 +670,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -792,20 +792,20 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -821,11 +821,11 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -850,11 +850,11 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -906,11 +906,11 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -935,11 +935,11 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -987,11 +987,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
@@ -1027,7 +1027,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1266,7 +1266,7 @@
         <v>46</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1280,11 +1280,11 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1318,7 +1318,7 @@
         <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
@@ -1374,7 +1374,7 @@
         <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1401,7 +1401,7 @@
         <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1453,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1469,20 +1469,20 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1507,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1534,7 +1534,7 @@
         <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5610B-AE47-4B34-960A-3DA46C1A8C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7645F00-D523-4712-80A2-A5685EAE3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="630" windowWidth="18600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>K_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +590,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -919,7 +927,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1000,7 +1008,7 @@
         <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7645F00-D523-4712-80A2-A5685EAE3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92CBCC5-451E-4158-831C-DC8929DB8D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="630" windowWidth="18600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>M_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRACE_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92CBCC5-451E-4158-831C-DC8929DB8D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16F9E1-C5C6-434F-B6DB-6E16395B9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>GRACE_AA</t>
-  </si>
-  <si>
-    <t>GRACE_SKILL_1</t>
   </si>
   <si>
     <t>6초 동안 사거리가 10이 됩니다.</t>
@@ -274,7 +271,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GRACE_SKILL</t>
+    <t>GRACE_SKILL_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -804,7 +801,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -817,7 +814,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -931,7 +928,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1012,7 +1009,7 @@
         <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1346,11 +1343,11 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1359,7 +1356,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1373,20 +1370,20 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1402,7 +1399,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1413,7 +1410,7 @@
         <v>46</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1427,11 +1424,11 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1440,7 +1437,7 @@
         <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1454,7 +1451,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1465,7 +1462,7 @@
         <v>46</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1481,20 +1478,20 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1508,7 +1505,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1519,7 +1516,7 @@
         <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1535,7 +1532,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1546,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB16F9E1-C5C6-434F-B6DB-6E16395B9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A74B0-8218-40C2-9BF0-1F61F04C2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="8535" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -163,9 +163,6 @@
     <t>NEAR_ENEMY</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>CURRENT_ENEMY</t>
   </si>
   <si>
@@ -245,18 +242,6 @@
   </si>
   <si>
     <t>EMMA_SKILL</t>
-  </si>
-  <si>
-    <t>엠마가 가장 가까운 2명의 아군과 자신에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
-  </si>
-  <si>
-    <t>NEAR_ALLY_3</t>
-  </si>
-  <si>
-    <t>L_AA_Child1</t>
-  </si>
-  <si>
-    <t>L_AA_Child2</t>
   </si>
   <si>
     <t>K_SKILL</t>
@@ -272,6 +257,163 @@
   </si>
   <si>
     <t>GRACE_SKILL_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YUNA_AA</t>
+  </si>
+  <si>
+    <t>YUNA_SKILL</t>
+  </si>
+  <si>
+    <t>주변 1칸 내의 적에게 공격력의 50%에 해당하는 피해를 가하고 2초간 침묵을 부여합니다.</t>
+  </si>
+  <si>
+    <t>NEAR1_ENEMY</t>
+  </si>
+  <si>
+    <t>LISA_AA</t>
+  </si>
+  <si>
+    <t>LISA_SKILL</t>
+  </si>
+  <si>
+    <t>3번째 기본 공격마다 공격중인 대상 및 대상과 가장 가까운 적 2명에게 공격력의 20%에 해당하는 피해를 가합니다.</t>
+  </si>
+  <si>
+    <t>CURRENT_CLOSE_ENEMY_2</t>
+  </si>
+  <si>
+    <t>NATSUKI_AA</t>
+  </si>
+  <si>
+    <t>NATSUKI_SKILL_1</t>
+  </si>
+  <si>
+    <t>현재 대상을 드럼스틱으로 6번 내려칩니다. 각 공격을 주문력의 30%에 해당하는 피해를 가합니다.</t>
+  </si>
+  <si>
+    <t>NATSUKI_SKILL_2</t>
+  </si>
+  <si>
+    <t>전투종료까지 스킬을 사용한 횟수만큼 추가로 내려칩니다.</t>
+  </si>
+  <si>
+    <t>AME_AA</t>
+  </si>
+  <si>
+    <t>AME_SKILL_1</t>
+  </si>
+  <si>
+    <t>아군에게 비를 내려 가장 체력이 낮은 아군 2명의 체력을 주문력의 30%에 해당하는 만큼 회복시킵니다.</t>
+  </si>
+  <si>
+    <t>LOW_HP_ALLY_2</t>
+  </si>
+  <si>
+    <t>AME_SKILL_2</t>
+  </si>
+  <si>
+    <t>가장 체력이 낮은 아군 2명에게 4초간 공격력 및 주문력을 50% 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>RUBIKA_AA</t>
+  </si>
+  <si>
+    <t>RUBIKA_SKILL_1</t>
+  </si>
+  <si>
+    <t>최대 체력의 20%에 해당하는 방어막을 획득합니다.</t>
+  </si>
+  <si>
+    <t>RUBIKA_SKILL_2</t>
+  </si>
+  <si>
+    <t>무작위 적 3명을 도발합니다.</t>
+  </si>
+  <si>
+    <t>RANDOM_ENEMY_3</t>
+  </si>
+  <si>
+    <t>ADELE_AA</t>
+  </si>
+  <si>
+    <t>ADELE_SKILL</t>
+  </si>
+  <si>
+    <t>현재 대상을 3초간 매혹시키고 공격력의 150%의 피해를 입힙니다.</t>
+  </si>
+  <si>
+    <t>ISIS_AA</t>
+  </si>
+  <si>
+    <t>ISIS_SKILL</t>
+  </si>
+  <si>
+    <t>가장 가까운 아군 1명의 공격 속도를 3초간 100% 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>NEAR_ALLY</t>
+  </si>
+  <si>
+    <t>MECHATIDY1_AA</t>
+  </si>
+  <si>
+    <t>MECHATIDY2_AA</t>
+  </si>
+  <si>
+    <t>MECHATIDY3_AA</t>
+  </si>
+  <si>
+    <t>K_SKILL_1</t>
+  </si>
+  <si>
+    <t>GRACE_SKILL_1</t>
+  </si>
+  <si>
+    <t>EMMA_SKILL_1</t>
+  </si>
+  <si>
+    <t>엠마가 가장 가까운 2명의 아군에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
+  </si>
+  <si>
+    <t>EMMA_SKILL_2</t>
+  </si>
+  <si>
+    <t>엠마가 자신에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
+  </si>
+  <si>
+    <t>_AA</t>
+  </si>
+  <si>
+    <t>SKILL_1</t>
+  </si>
+  <si>
+    <t>기본 공격에 맞을 경우 인접한 적에게 주문력의 100%에 해당하는 마법 피해를 가합니다.</t>
+  </si>
+  <si>
+    <t>주문력의 200%에 해당하는 마법 피해를 가합니다.</t>
+  </si>
+  <si>
+    <t>SKILL_2</t>
+  </si>
+  <si>
+    <t>스킬 사용으로 적의 최대 체력이 10% 미만이 되었다면 적이 처형됩니다.</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>주변 1칸 내의 적에게 주문력의 50%에 해당하는 마법 피해 및 1.5초간 침묵을 부여함.</t>
+  </si>
+  <si>
+    <t>1열에 있는 아군들에게 주문력의 100%에 비례한 보호막을 생성함.</t>
+  </si>
+  <si>
+    <t>ROW1_ALLY</t>
+  </si>
+  <si>
+    <t>NEAR_ALLY_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +467,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,11 +497,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,10 +527,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,10 +757,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -600,8 +769,9 @@
     <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="123.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -628,16 +798,16 @@
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>44</v>
@@ -665,16 +835,16 @@
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -698,7 +868,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
@@ -707,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -728,18 +898,14 @@
       <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="5">
-        <v>500101</v>
-      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -757,16 +923,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -784,16 +950,16 @@
       <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>1100200</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>1100200</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -801,28 +967,28 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1100210</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>1100210</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -830,28 +996,28 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1100210</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <v>1100210</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -859,28 +1025,28 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1100210</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1">
-        <v>1100210</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -898,16 +1064,16 @@
       <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>1100400</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1">
-        <v>1100400</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -915,28 +1081,28 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1100410</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1">
-        <v>1100410</v>
-      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -944,11 +1110,11 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -956,14 +1122,14 @@
       <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -981,14 +1147,14 @@
       <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -996,11 +1162,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1008,41 +1174,41 @@
       <c r="G14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>500411</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>4</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1060,14 +1226,14 @@
       <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1085,16 +1251,16 @@
       <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1">
+        <v>1110100</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>1110100</v>
-      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1112,14 +1278,14 @@
       <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1139,14 +1305,14 @@
       <c r="G19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1164,16 +1330,16 @@
       <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="1">
+        <v>1110300</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1">
-        <v>1110300</v>
-      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1191,18 +1357,18 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1110310</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1">
-        <v>1110310</v>
-      </c>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1220,43 +1386,43 @@
       <c r="G22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="1">
+        <v>1110400</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <v>1110400</v>
-      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>510410</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1264,7 +1430,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1274,14 +1440,14 @@
       <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1289,11 +1455,11 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1301,14 +1467,14 @@
       <c r="G25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1316,7 +1482,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1326,16 +1492,16 @@
       <c r="G26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1">
+        <v>1100600</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1">
-        <v>1100600</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1343,11 +1509,11 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1355,14 +1521,14 @@
       <c r="G27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1370,11 +1536,11 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1">
         <v>10</v>
@@ -1382,16 +1548,16 @@
       <c r="G28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="1"/>
+      <c r="H28" s="1">
+        <v>1100610</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <v>1100610</v>
-      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1399,7 +1565,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1409,14 +1575,14 @@
       <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1424,26 +1590,26 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1451,7 +1617,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1461,16 +1627,16 @@
       <c r="G31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="1"/>
+      <c r="H31" s="1">
+        <v>1100800</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1">
-        <v>1100800</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="5"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1478,57 +1644,55 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>500101</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="5">
-        <v>500102</v>
-      </c>
+      <c r="A33" s="6">
+        <v>500811</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>500102</v>
+        <v>500900</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -1542,15 +1706,691 @@
       <c r="G34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>500910</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>501000</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1101000</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>501010</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>501100</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>501110</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>501111</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>501200</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1101200</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>501210</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>501211</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>501300</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>501310</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>501311</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>501400</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1101400</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>501410</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1101410</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>501500</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1101500</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>501510</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1101510</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>501600</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>501601</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>501602</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>501700</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>501710</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>501800</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>501810</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>501811</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>501900</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>501910</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>502000</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>502010</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04A74B0-8218-40C2-9BF0-1F61F04C2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D17909-1735-493D-B8B1-05E944EF09F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>EMMA_AA</t>
-  </si>
-  <si>
-    <t>EMMA_SKILL</t>
   </si>
   <si>
     <t>K_SKILL</t>
@@ -414,6 +411,10 @@
   </si>
   <si>
     <t>NEAR_ALLY_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMMA_SKILL_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -967,7 +968,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -983,7 +984,7 @@
         <v>1100210</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1097,7 +1098,7 @@
         <v>1100410</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1509,7 +1510,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -1523,7 +1524,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1644,21 +1645,21 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1671,11 +1672,11 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
@@ -1684,7 +1685,9 @@
         <v>34</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -1696,7 +1699,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1707,7 +1710,9 @@
         <v>46</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1719,20 +1724,22 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1744,7 +1751,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1757,7 +1764,9 @@
       <c r="H36" s="1">
         <v>1101000</v>
       </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1769,20 +1778,22 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1794,7 +1805,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1805,7 +1816,9 @@
         <v>46</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1817,11 +1830,11 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -1830,7 +1843,9 @@
         <v>47</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1842,11 +1857,11 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -1855,7 +1870,9 @@
         <v>47</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1867,7 +1884,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1880,7 +1897,9 @@
       <c r="H41" s="1">
         <v>1101200</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1892,20 +1911,22 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1917,20 +1938,22 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -1942,7 +1965,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1953,7 +1976,9 @@
         <v>46</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -1965,11 +1990,11 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1978,7 +2003,9 @@
         <v>34</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -1990,20 +2017,22 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2015,7 +2044,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2028,7 +2057,9 @@
       <c r="H47" s="1">
         <v>1101400</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2040,11 +2071,11 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -2055,7 +2086,9 @@
       <c r="H48" s="1">
         <v>1101410</v>
       </c>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2067,7 +2100,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2080,7 +2113,9 @@
       <c r="H49" s="1">
         <v>1101500</v>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2092,22 +2127,24 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H50" s="1">
         <v>1101510</v>
       </c>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2119,7 +2156,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2130,7 +2167,9 @@
         <v>46</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2142,7 +2181,7 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2153,7 +2192,9 @@
         <v>46</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2165,7 +2206,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2176,7 +2217,9 @@
         <v>46</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -2188,7 +2231,7 @@
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2211,17 +2254,17 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2236,7 +2279,7 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2257,11 +2300,11 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -2280,11 +2323,11 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
@@ -2303,7 +2346,7 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2326,17 +2369,17 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2351,7 +2394,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2372,17 +2415,17 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32CC12F-7A0B-422E-A994-D24C221A2338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D302CBC-70BD-46B0-8642-560C6773B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1350" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="2235" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -133,18 +133,6 @@
     <t>FARTHEST_ENEMY</t>
   </si>
   <si>
-    <t>K_SKILL_2</t>
-  </si>
-  <si>
-    <t>나비에 닿은 적은 6초간 '통보'를 얻습니다. '통보'를 가진 적은 마법 방어력이 50% 감소합니다.</t>
-  </si>
-  <si>
-    <t>K_SKILL_3</t>
-  </si>
-  <si>
-    <t>나비에 닿은 적에게 주문력의 120%에 해당하는 피해를 입힙니다.</t>
-  </si>
-  <si>
     <t>J_SKILL_1</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
     <t>현재 대상을 드럼스틱으로 6번 내려칩니다. 각 공격을 주문력의 30%에 해당하는 피해를 가합니다.</t>
   </si>
   <si>
-    <t>NATSUKI_SKILL_2</t>
-  </si>
-  <si>
     <t>전투종료까지 스킬을 사용한 횟수만큼 추가로 내려칩니다.</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>LOW_HP_ALLY_2</t>
   </si>
   <si>
-    <t>AME_SKILL_2</t>
-  </si>
-  <si>
     <t>가장 체력이 낮은 아군 2명에게 4초간 공격력 및 주문력을 50% 증가시킵니다.</t>
   </si>
   <si>
@@ -349,12 +331,6 @@
     <t>0500210</t>
   </si>
   <si>
-    <t>0500211</t>
-  </si>
-  <si>
-    <t>0500212</t>
-  </si>
-  <si>
     <t>0500300</t>
   </si>
   <si>
@@ -424,18 +400,12 @@
     <t>0501110</t>
   </si>
   <si>
-    <t>0501111</t>
-  </si>
-  <si>
     <t>0501200</t>
   </si>
   <si>
     <t>0501210</t>
   </si>
   <si>
-    <t>0501211</t>
-  </si>
-  <si>
     <t>0501300</t>
   </si>
   <si>
@@ -524,6 +494,18 @@
   </si>
   <si>
     <t>NEAR_ALLY_2</t>
+  </si>
+  <si>
+    <t>K_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J_SKILL_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AME_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,10 +815,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,7 +937,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -979,7 +961,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1005,7 +987,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -1031,10 +1013,10 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -1050,7 +1032,7 @@
         <v>1100210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1059,26 +1041,24 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
-        <v>1100210</v>
+        <v>1100400</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1087,26 +1067,26 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="1">
-        <v>1100210</v>
+        <v>1100410</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1115,24 +1095,24 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1100400</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1141,26 +1121,22 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1100410</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1169,14 +1145,14 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1186,7 +1162,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1195,44 +1171,44 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
@@ -1243,26 +1219,26 @@
       <c r="K14" s="1"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1271,22 +1247,24 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1100600</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1295,14 +1273,14 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1312,7 +1290,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1321,24 +1299,26 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="1">
-        <v>1100600</v>
+        <v>1100610</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1347,24 +1327,22 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1373,26 +1351,24 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1100610</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1401,22 +1377,24 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1100800</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1425,24 +1403,24 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1451,24 +1429,24 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1100800</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1477,59 +1455,57 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>98</v>
+      <c r="D25" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>60</v>
@@ -1537,12 +1513,14 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>1101000</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1553,17 +1531,17 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>63</v>
@@ -1579,24 +1557,22 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1101000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1605,24 +1581,24 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1631,22 +1607,24 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1655,7 +1633,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>68</v>
@@ -1665,12 +1643,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>1101200</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1681,20 +1661,20 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
@@ -1707,22 +1687,24 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1731,26 +1713,24 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1101200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1759,24 +1739,22 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1785,22 +1763,26 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1101400</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1809,24 +1791,24 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1101410</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1835,24 +1817,26 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1101500</v>
+      </c>
       <c r="H38" s="1" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1861,10 +1845,10 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1872,11 +1856,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1101510</v>
+      </c>
       <c r="H39" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1885,26 +1871,22 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="1">
-        <v>1101400</v>
-      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1913,24 +1895,22 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1101410</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1939,26 +1919,22 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="1">
-        <v>1101500</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1967,24 +1943,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1101510</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1993,10 +1969,10 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2004,11 +1980,11 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2017,22 +1993,26 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>1101800</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2041,22 +2021,26 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1101810</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2065,15 +2049,13 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1">
         <v>1</v>
       </c>
@@ -2082,7 +2064,7 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2091,22 +2073,24 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2115,26 +2099,24 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G49" s="1">
-        <v>1101800</v>
+        <v>1102000</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2143,26 +2125,24 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E50" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1101810</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2170,109 +2150,7 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1102000</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D302CBC-70BD-46B0-8642-560C6773B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE248C-8A44-4E05-A311-3783164D6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="2235" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2220" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -133,30 +133,12 @@
     <t>FARTHEST_ENEMY</t>
   </si>
   <si>
-    <t>J_SKILL_1</t>
-  </si>
-  <si>
     <t>현재 대상에게 J의 최대 체력의 15%에 해당하는 물리 피해를 입힙니다.</t>
   </si>
   <si>
-    <t>J_SKILL_2</t>
-  </si>
-  <si>
-    <t>J는 공격력의 200% 만큼 체력을 회복합니다.</t>
-  </si>
-  <si>
-    <t>M_SKILL_1</t>
-  </si>
-  <si>
     <t>반드시 치명타로 적중합니다.</t>
   </si>
   <si>
-    <t>M_SKILL_2</t>
-  </si>
-  <si>
-    <t>현재 대상에게 공격력의 200%에 해당하는 물리 피해를 입힙니다.</t>
-  </si>
-  <si>
     <t>VIVIAN_AA</t>
   </si>
   <si>
@@ -172,12 +154,6 @@
     <t>6초 동안 사거리가 10이 됩니다.</t>
   </si>
   <si>
-    <t>GRACE_SKILL_2</t>
-  </si>
-  <si>
-    <t>0.5초마다 대상과 주변 1칸에 있는 적에게 공격력의 150%의 피해를 가합니다.</t>
-  </si>
-  <si>
     <t>SHANNAH_AA</t>
   </si>
   <si>
@@ -217,9 +193,6 @@
     <t>NATSUKI_AA</t>
   </si>
   <si>
-    <t>NATSUKI_SKILL_1</t>
-  </si>
-  <si>
     <t>현재 대상을 드럼스틱으로 6번 내려칩니다. 각 공격을 주문력의 30%에 해당하는 피해를 가합니다.</t>
   </si>
   <si>
@@ -229,9 +202,6 @@
     <t>AME_AA</t>
   </si>
   <si>
-    <t>AME_SKILL_1</t>
-  </si>
-  <si>
     <t>아군에게 비를 내려 가장 체력이 낮은 아군 2명의 체력을 주문력의 30%에 해당하는 만큼 회복시킵니다.</t>
   </si>
   <si>
@@ -244,21 +214,12 @@
     <t>RUBIKA_AA</t>
   </si>
   <si>
-    <t>RUBIKA_SKILL_1</t>
-  </si>
-  <si>
     <t>최대 체력의 20%에 해당하는 방어막을 획득합니다.</t>
   </si>
   <si>
-    <t>RUBIKA_SKILL_2</t>
-  </si>
-  <si>
     <t>무작위 적 3명을 도발합니다.</t>
   </si>
   <si>
-    <t>RANDOM_ENEMY_3</t>
-  </si>
-  <si>
     <t>ADELE_AA</t>
   </si>
   <si>
@@ -283,24 +244,9 @@
     <t>MECHATIDY3_AA</t>
   </si>
   <si>
-    <t>K_SKILL_1</t>
-  </si>
-  <si>
-    <t>GRACE_SKILL_1</t>
-  </si>
-  <si>
-    <t>EMMA_SKILL_1</t>
-  </si>
-  <si>
     <t>엠마가 가장 가까운 2명의 아군에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
   </si>
   <si>
-    <t>EMMA_SKILL_2</t>
-  </si>
-  <si>
-    <t>엠마가 자신에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
-  </si>
-  <si>
     <t>기본 공격에 맞을 경우 인접한 적에게 주문력의 100%에 해당하는 마법 피해를 가합니다.</t>
   </si>
   <si>
@@ -337,18 +283,12 @@
     <t>0500310</t>
   </si>
   <si>
-    <t>0500311</t>
-  </si>
-  <si>
     <t>0500400</t>
   </si>
   <si>
     <t>0500410</t>
   </si>
   <si>
-    <t>0500411</t>
-  </si>
-  <si>
     <t>0500500</t>
   </si>
   <si>
@@ -361,9 +301,6 @@
     <t>0500610</t>
   </si>
   <si>
-    <t>0500611</t>
-  </si>
-  <si>
     <t>0500700</t>
   </si>
   <si>
@@ -376,9 +313,6 @@
     <t>0500810</t>
   </si>
   <si>
-    <t>0500811</t>
-  </si>
-  <si>
     <t>0500900</t>
   </si>
   <si>
@@ -410,9 +344,6 @@
   </si>
   <si>
     <t>0501310</t>
-  </si>
-  <si>
-    <t>0501311</t>
   </si>
   <si>
     <t>0501400</t>
@@ -500,11 +431,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J_SKILL_1</t>
+    <t>AME_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AME_SKILL</t>
+    <t>J_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRACE_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NATSUKI_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMMA_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUBIKA_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LISA_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LISA_PASSIVE_AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +774,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -829,7 +788,8 @@
     <col min="4" max="4" width="123.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -937,7 +897,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -961,7 +921,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -987,7 +947,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -1013,10 +973,10 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -1032,7 +992,7 @@
         <v>1100210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1041,7 +1001,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1067,14 +1027,14 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1086,7 +1046,7 @@
         <v>1100410</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1095,24 +1055,22 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1121,74 +1079,74 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1197,22 +1155,24 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1100600</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1221,14 +1181,14 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1238,7 +1198,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1247,24 +1207,22 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="1">
-        <v>1100600</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1273,24 +1231,24 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1299,26 +1257,24 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="1">
-        <v>1100610</v>
+        <v>1100800</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1327,22 +1283,24 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1351,126 +1309,124 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1100800</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1101000</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1479,24 +1435,24 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1505,24 +1461,24 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1101000</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1531,24 +1487,26 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1101200</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1557,22 +1515,24 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1581,14 +1541,14 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1598,7 +1558,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1607,24 +1567,24 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1633,26 +1593,26 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1">
-        <v>1101200</v>
+        <v>1101400</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1661,24 +1621,24 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1101410</v>
+      </c>
       <c r="H32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1687,24 +1647,26 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>1101500</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1713,24 +1675,24 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1101510</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1739,22 +1701,22 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1763,26 +1725,22 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="1">
-        <v>1101400</v>
-      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1791,24 +1749,22 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1101410</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1817,26 +1773,24 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="1">
-        <v>1101500</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1845,24 +1799,22 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1101510</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1871,22 +1823,26 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>1101800</v>
+      </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1895,22 +1851,26 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1101810</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1919,10 +1879,10 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1934,7 +1894,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1943,24 +1903,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1969,22 +1929,24 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1102000</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1993,26 +1955,24 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1101800</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2020,137 +1980,7 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="1">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1101810</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1102000</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G51" s="1"/>
+      <c r="G46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE248C-8A44-4E05-A311-3783164D6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5051BF1E-3114-46F2-9A84-B6E8E450AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2220" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>LISA_AA</t>
-  </si>
-  <si>
-    <t>LISA_SKILL</t>
   </si>
   <si>
     <t>3번째 기본 공격마다 공격중인 대상 및 대상과 가장 가까운 적 2명에게 공격력의 20%에 해당하는 피해를 가합니다.</t>
@@ -777,13 +774,13 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="123.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -897,7 +894,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -921,7 +918,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -947,7 +944,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -973,10 +970,10 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -992,7 +989,7 @@
         <v>1100210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1001,7 +998,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1027,10 +1024,10 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1046,7 +1043,7 @@
         <v>1100410</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1055,7 +1052,7 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1079,10 +1076,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1096,7 +1093,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1105,7 +1102,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1181,10 +1178,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1198,7 +1195,7 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1207,7 +1204,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -1231,7 +1228,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1283,24 +1280,24 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1359,7 +1356,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>52</v>
@@ -1385,24 +1382,24 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1411,10 +1408,10 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1426,7 +1423,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1435,14 +1432,14 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1452,7 +1449,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1461,14 +1458,14 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1478,7 +1475,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1487,14 +1484,14 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -1506,7 +1503,7 @@
         <v>1101200</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1515,24 +1512,24 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1541,14 +1538,14 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1558,7 +1555,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1567,14 +1564,14 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1584,7 +1581,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1593,14 +1590,14 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -1612,7 +1609,7 @@
         <v>1101400</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1621,10 +1618,10 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1638,7 +1635,7 @@
         <v>1101410</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1647,14 +1644,14 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1666,7 +1663,7 @@
         <v>1101500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1686,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1">
         <v>1101510</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1701,10 +1698,10 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1716,7 +1713,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1725,10 +1722,10 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1740,7 +1737,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1749,10 +1746,10 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1764,7 +1761,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1773,14 +1770,14 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1790,7 +1787,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1799,10 +1796,10 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1814,7 +1811,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1823,14 +1820,14 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -1842,7 +1839,7 @@
         <v>1101800</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1851,14 +1848,14 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -1870,7 +1867,7 @@
         <v>1101810</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1879,10 +1876,10 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1894,7 +1891,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1903,14 +1900,14 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1920,7 +1917,7 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1929,10 +1926,10 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1946,7 +1943,7 @@
         <v>1102000</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1955,24 +1952,24 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5051BF1E-3114-46F2-9A84-B6E8E450AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA56C7B-FC90-4F34-83A7-C1C2FB5BB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2220" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -461,6 +461,17 @@
   </si>
   <si>
     <t>LISA_PASSIVE_AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0500820</t>
+  </si>
+  <si>
+    <t>EMMA_SKILL_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +782,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1306,48 +1317,46 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1356,24 +1365,24 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1101000</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1382,24 +1391,24 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1101000</v>
+      </c>
       <c r="H23" s="1" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1408,22 +1417,24 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1432,24 +1443,22 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1458,24 +1467,24 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1484,26 +1493,24 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1101200</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1512,24 +1519,26 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1101200</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1538,24 +1547,24 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1564,24 +1573,24 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1590,26 +1599,24 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="6" t="s">
-        <v>67</v>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1101400</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1618,24 +1625,26 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1">
-        <v>1101410</v>
+        <v>1101400</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1644,26 +1653,24 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1">
-        <v>1101500</v>
+        <v>1101410</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1672,24 +1679,26 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1">
-        <v>1101510</v>
+        <v>1101500</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1698,22 +1707,24 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1101510</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1722,10 +1733,10 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1737,7 +1748,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1746,10 +1757,10 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1761,7 +1772,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1770,15 +1781,13 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1">
         <v>1</v>
       </c>
@@ -1787,7 +1796,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1796,22 +1805,24 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1820,26 +1831,22 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1101800</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1848,26 +1855,26 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="1">
-        <v>1101810</v>
+        <v>1101800</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1876,22 +1883,26 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1101810</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1900,24 +1911,22 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1926,24 +1935,24 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1102000</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1952,24 +1961,24 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1102000</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1977,7 +1986,33 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA56C7B-FC90-4F34-83A7-C1C2FB5BB0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7CE82-7EC0-4CEF-BFCF-7989E74D28FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="1395" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -465,6 +465,7 @@
   </si>
   <si>
     <t>0500820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EMMA_SKILL_2</t>
@@ -784,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1323,7 +1324,9 @@
         <v>145</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
@@ -1427,12 +1430,14 @@
         <v>53</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>1101000</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>143</v>
       </c>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF7CE82-7EC0-4CEF-BFCF-7989E74D28FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049D1C6-FF6A-49A3-A3C4-2A1A267C5C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1395" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="1500" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -474,6 +474,9 @@
   <si>
     <t>SELF</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_NEAR1_ENEMY</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -565,6 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -785,8 +789,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1200,10 +1204,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
@@ -1253,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049D1C6-FF6A-49A3-A3C4-2A1A267C5C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934761D5-8164-4C03-8F68-92C7485D0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="1500" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="1710" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -322,9 +322,6 @@
     <t>0501010</t>
   </si>
   <si>
-    <t>0501020</t>
-  </si>
-  <si>
     <t>0501100</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
   </si>
   <si>
     <t>0502010</t>
-  </si>
-  <si>
-    <t>LISA_PASSIVE</t>
   </si>
   <si>
     <t>ISYS_AA</t>
@@ -453,10 +447,6 @@
   </si>
   <si>
     <t>RUBIKA_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LISA_PASSIVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,10 +777,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -989,7 +979,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -1005,7 +995,7 @@
         <v>1100210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1043,7 +1033,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1059,7 +1049,7 @@
         <v>1100410</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1095,7 +1085,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1109,7 +1099,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1197,7 +1187,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1207,11 +1197,11 @@
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1257,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
@@ -1299,7 +1289,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1309,11 +1299,11 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1322,10 +1312,10 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1335,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1427,7 +1417,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1443,7 +1433,7 @@
         <v>1101000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1455,19 +1445,21 @@
         <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1479,21 +1471,21 @@
         <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1505,21 +1497,23 @@
         <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1101200</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1531,23 +1525,21 @@
         <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1101200</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1559,21 +1551,21 @@
         <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1585,21 +1577,21 @@
         <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1611,21 +1603,23 @@
         <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
+      <c r="D31" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1101400</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1637,23 +1631,21 @@
         <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1">
-        <v>1101400</v>
+        <v>1101410</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1665,21 +1657,23 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E33" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1">
-        <v>1101410</v>
+        <v>1101500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1691,23 +1685,21 @@
         <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1">
-        <v>1101500</v>
+        <v>1101510</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1719,21 +1711,19 @@
         <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1101510</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1745,7 +1735,7 @@
         <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1757,7 +1747,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1769,7 +1759,7 @@
         <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1781,7 +1771,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1793,10 +1783,12 @@
         <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
@@ -1805,7 +1797,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1817,21 +1809,19 @@
         <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1843,19 +1833,23 @@
         <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1101800</v>
+      </c>
       <c r="H40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1867,23 +1861,23 @@
         <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" s="1">
-        <v>1101800</v>
+        <v>1101810</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1895,23 +1889,19 @@
         <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1101810</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1923,19 +1913,21 @@
         <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1947,21 +1939,21 @@
         <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1102000</v>
+      </c>
       <c r="H44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1973,21 +1965,21 @@
         <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1102000</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1995,33 +1987,7 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934761D5-8164-4C03-8F68-92C7485D0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3041FB1-8258-46DD-A482-1CC21108546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1710" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -244,9 +244,6 @@
     <t>엠마가 가장 가까운 2명의 아군에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
   </si>
   <si>
-    <t>기본 공격에 맞을 경우 인접한 적에게 주문력의 100%에 해당하는 마법 피해를 가합니다.</t>
-  </si>
-  <si>
     <t>주문력의 200%에 해당하는 마법 피해를 가합니다.</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>0501602</t>
   </si>
   <si>
-    <t>0501700</t>
-  </si>
-  <si>
     <t>0501710</t>
   </si>
   <si>
@@ -389,12 +383,6 @@
   </si>
   <si>
     <t>ISYS_SKILL</t>
-  </si>
-  <si>
-    <t>TURTLE_AA</t>
-  </si>
-  <si>
-    <t>TURTLE_SKILL</t>
   </si>
   <si>
     <t>RABBIT_AA</t>
@@ -467,6 +455,10 @@
   </si>
   <si>
     <t>CURRENT_NEAR1_ENEMY</t>
+  </si>
+  <si>
+    <t>TURTLE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -777,10 +769,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -900,7 +892,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -924,7 +916,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -950,7 +942,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -976,10 +968,10 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -995,7 +987,7 @@
         <v>1100210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1004,7 +996,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1030,10 +1022,10 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1049,7 +1041,7 @@
         <v>1100410</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1058,7 +1050,7 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1082,10 +1074,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1099,7 +1091,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1108,7 +1100,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -1132,7 +1124,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -1158,7 +1150,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1184,10 +1176,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1197,11 +1189,11 @@
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1210,7 +1202,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -1234,7 +1226,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -1247,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
@@ -1260,7 +1252,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1286,10 +1278,10 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -1299,11 +1291,11 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1312,10 +1304,10 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1325,11 +1317,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1338,7 +1330,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>48</v>
@@ -1362,7 +1354,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>49</v>
@@ -1388,7 +1380,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
@@ -1414,10 +1406,10 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1433,7 +1425,7 @@
         <v>1101000</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1442,7 +1434,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>55</v>
@@ -1468,10 +1460,10 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -1485,7 +1477,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1494,7 +1486,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
@@ -1522,10 +1514,10 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -1539,7 +1531,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1548,7 +1540,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>62</v>
@@ -1574,10 +1566,10 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1591,7 +1583,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1600,7 +1592,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -1628,7 +1620,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>66</v>
@@ -1654,10 +1646,10 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
@@ -1673,7 +1665,7 @@
         <v>1101500</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1682,10 +1674,10 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1699,7 +1691,7 @@
         <v>1101510</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1708,7 +1700,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>70</v>
@@ -1732,7 +1724,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
@@ -1756,7 +1748,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>72</v>
@@ -1780,24 +1772,22 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1806,22 +1796,26 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1101800</v>
+      </c>
       <c r="H39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1830,10 +1824,10 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
@@ -1843,13 +1837,13 @@
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" s="1">
-        <v>1101800</v>
+        <v>1101810</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1858,26 +1852,22 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1101810</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1886,22 +1876,24 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1910,24 +1902,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1102000</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1936,24 +1928,24 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1102000</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1961,33 +1953,7 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3041FB1-8258-46DD-A482-1CC21108546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467F387-E12A-468E-85E0-B6A28365D261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -439,14 +439,6 @@
   </si>
   <si>
     <t>LISA_PASSIVE_AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0500820</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMMA_SKILL_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,10 +761,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
@@ -1239,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
@@ -1304,48 +1296,48 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1354,24 +1346,24 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1101000</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1380,24 +1372,26 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1">
         <v>1101000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1406,26 +1400,24 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1101000</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1434,24 +1426,24 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1460,24 +1452,26 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1101200</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1486,26 +1480,24 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1101200</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1514,24 +1506,24 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1540,24 +1532,24 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1566,24 +1558,26 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>64</v>
+      <c r="D30" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1101400</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1592,26 +1586,24 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>1101400</v>
+        <v>1101410</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1620,24 +1612,26 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E32" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1">
-        <v>1101410</v>
+        <v>1101500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1646,26 +1640,24 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1">
-        <v>1101500</v>
+        <v>1101510</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1674,24 +1666,22 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1101510</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1700,10 +1690,10 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1715,7 +1705,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1724,10 +1714,10 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1739,7 +1729,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1748,10 +1738,10 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1759,11 +1749,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1772,22 +1762,26 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1101800</v>
+      </c>
       <c r="H38" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1796,26 +1790,26 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" s="1">
-        <v>1101800</v>
+        <v>1101810</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1824,26 +1818,22 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1101810</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1852,22 +1842,24 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1876,24 +1868,24 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1102000</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1902,24 +1894,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1102000</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1927,33 +1919,7 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467F387-E12A-468E-85E0-B6A28365D261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AA227-B218-4EA1-9E65-5AADEB462612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -232,15 +232,6 @@
     <t>NEAR_ALLY</t>
   </si>
   <si>
-    <t>MECHATIDY1_AA</t>
-  </si>
-  <si>
-    <t>MECHATIDY2_AA</t>
-  </si>
-  <si>
-    <t>MECHATIDY3_AA</t>
-  </si>
-  <si>
     <t>엠마가 가장 가까운 2명의 아군에게 '정비' 버프를 4초간 제공한다. 정비: 주문력 및 공격력 +60%</t>
   </si>
   <si>
@@ -450,6 +441,18 @@
   </si>
   <si>
     <t>TURTLE_PASSIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY1_AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY2_AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHA_TIDY3_AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -884,7 +887,7 @@
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
@@ -960,10 +963,10 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -979,7 +982,7 @@
         <v>1100210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -988,7 +991,7 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1014,10 +1017,10 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1033,7 +1036,7 @@
         <v>1100410</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1066,10 +1069,10 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -1083,7 +1086,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1168,10 +1171,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1181,11 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -1231,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
@@ -1244,7 +1247,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1270,24 +1273,24 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>52</v>
@@ -1372,10 +1375,10 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -1391,7 +1394,7 @@
         <v>1101000</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>55</v>
@@ -1426,10 +1429,10 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1443,7 +1446,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1452,7 +1455,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>58</v>
@@ -1480,10 +1483,10 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1497,7 +1500,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
@@ -1532,10 +1535,10 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -1549,7 +1552,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1558,7 +1561,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>65</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>66</v>
@@ -1612,10 +1615,10 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -1631,7 +1634,7 @@
         <v>1101500</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1640,10 +1643,10 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1657,7 +1660,7 @@
         <v>1101510</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1681,7 +1684,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1690,10 +1693,10 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1705,7 +1708,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1714,10 +1717,10 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1738,10 +1741,10 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1753,7 +1756,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1762,14 +1765,14 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
@@ -1781,7 +1784,7 @@
         <v>1101800</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1790,14 +1793,14 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
@@ -1809,7 +1812,7 @@
         <v>1101810</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1818,10 +1821,10 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1842,14 +1845,14 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1859,7 +1862,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1885,7 +1888,7 @@
         <v>1102000</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1894,24 +1897,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4AA227-B218-4EA1-9E65-5AADEB462612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B750D27-E1AA-4708-879D-A6D85B0E6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1004,9 +1004,7 @@
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1">
-        <v>1100400</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1032,9 +1030,7 @@
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="1">
-        <v>1100410</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>127</v>
       </c>
@@ -1058,7 +1054,9 @@
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1100400</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1082,9 +1080,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1100410</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>128</v>
       </c>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B750D27-E1AA-4708-879D-A6D85B0E6C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3494548-EF05-49AF-96A2-A531AE589522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -453,6 +453,64 @@
   </si>
   <si>
     <t>MECHA_TIDY3_AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES_L_SKILL</t>
+  </si>
+  <si>
+    <t>DES_K_SKILL</t>
+  </si>
+  <si>
+    <t>DES_J_SKILL</t>
+  </si>
+  <si>
+    <t>DES_M_SKILL</t>
+  </si>
+  <si>
+    <t>DES_GRACE_SKILL</t>
+  </si>
+  <si>
+    <t>DES_SHANNAH_SKILL</t>
+  </si>
+  <si>
+    <t>DES_EMMA_SKILL</t>
+  </si>
+  <si>
+    <t>DES_YUNA_SKILL</t>
+  </si>
+  <si>
+    <t>DES_LISA_SKILL</t>
+  </si>
+  <si>
+    <t>DES_NATSUKI_SKILL</t>
+  </si>
+  <si>
+    <t>DES_AME_SKILL</t>
+  </si>
+  <si>
+    <t>DES_RUBIKA_SKILL</t>
+  </si>
+  <si>
+    <t>DES_ADELE_SKILL</t>
+  </si>
+  <si>
+    <t>DES_ISYS_SKILL</t>
+  </si>
+  <si>
+    <t>DES_TURTLE_SKILL</t>
+  </si>
+  <si>
+    <t>DES_RABBIT_SKILL</t>
+  </si>
+  <si>
+    <t>DES_GALAXY_SKILL</t>
+  </si>
+  <si>
+    <t>DES_FORSYTHIA_SKILL</t>
+  </si>
+  <si>
+    <t>DES_VIVIAN_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -521,11 +579,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -546,6 +619,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -766,24 +842,24 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -853,7 +929,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -885,7 +961,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
@@ -909,14 +985,16 @@
       <c r="K4" s="1"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
@@ -935,7 +1013,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
@@ -961,14 +1039,16 @@
       <c r="K6" s="1"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
@@ -989,7 +1069,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -1013,14 +1093,16 @@
       <c r="K8" s="1"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1039,7 +1121,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -1065,14 +1147,16 @@
       <c r="K10" s="1"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1177,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
@@ -1117,14 +1201,16 @@
       <c r="K12" s="1"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1229,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -1169,14 +1255,16 @@
       <c r="K14" s="1"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1283,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
@@ -1219,14 +1307,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1335,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -1271,14 +1361,16 @@
       <c r="K18" s="1"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
@@ -1297,7 +1389,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -1321,14 +1413,16 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1347,7 +1441,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
@@ -1373,14 +1467,16 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
@@ -1401,7 +1497,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -1427,14 +1523,16 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1453,7 +1551,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -1481,14 +1579,16 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
@@ -1507,7 +1607,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
@@ -1533,14 +1633,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1559,7 +1661,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>102</v>
       </c>
@@ -1587,14 +1689,16 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>5</v>
@@ -1613,7 +1717,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -1641,14 +1745,16 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>0</v>
@@ -1667,7 +1773,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
@@ -1691,7 +1797,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>107</v>
       </c>
@@ -1715,7 +1821,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>108</v>
       </c>
@@ -1739,14 +1845,16 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
         <v>1</v>
@@ -1763,7 +1871,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>110</v>
       </c>
@@ -1791,14 +1899,16 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
@@ -1819,7 +1929,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
@@ -1843,14 +1953,16 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1869,7 +1981,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>114</v>
       </c>
@@ -1895,14 +2007,16 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>74</v>
       </c>
@@ -1921,7 +2035,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G44" s="1"/>
     </row>
   </sheetData>
